--- a/Documents/AppiumTest_PICT001.xlsx
+++ b/Documents/AppiumTest_PICT001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\pleiades\workspace\PlanisphereTestByAppium\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6F7344-591E-4054-9C66-DAF66488DBFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CF54E2-46E3-40F9-A828-6D1400B89709}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="84" yWindow="5580" windowWidth="22740" windowHeight="6708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="141">
   <si>
     <t>UserType</t>
   </si>
@@ -600,6 +600,10 @@
   </si>
   <si>
     <t>メールでのご連絡</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>プレミアムプラン</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1747,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1974,7 +1978,7 @@
         <v>8000</v>
       </c>
       <c r="AH2">
-        <f t="shared" ref="AH2:AH33" si="2">AE2+AF2+AG2</f>
+        <f t="shared" ref="AH2" si="2">AE2+AF2+AG2</f>
         <v>40000</v>
       </c>
     </row>
@@ -2180,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <f t="shared" ref="AH3:AH66" si="6">AE4+AF4+AG4</f>
+        <f t="shared" ref="AH4:AH66" si="6">AE4+AF4+AG4</f>
         <v>7000</v>
       </c>
     </row>
@@ -6935,7 +6939,7 @@
         <v>16</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>136</v>
@@ -6967,7 +6971,7 @@
         <v>55</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="Q51" s="8">
         <f t="shared" si="7"/>
@@ -7063,7 +7067,7 @@
         <v>93</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8516,7 +8520,7 @@
         <v>15</v>
       </c>
       <c r="U66">
-        <f t="shared" ref="U66:U97" si="10">W66-V66</f>
+        <f t="shared" ref="U66:U75" si="10">W66-V66</f>
         <v>0</v>
       </c>
       <c r="V66">
@@ -8544,7 +8548,7 @@
         <v>9000</v>
       </c>
       <c r="AD66">
-        <f t="shared" ref="AD66:AD97" si="11">AC66*1.25</f>
+        <f t="shared" ref="AD66:AD75" si="11">AC66*1.25</f>
         <v>11250</v>
       </c>
       <c r="AE66">
